--- a/src/predicciones/holt_winters/producto_8.xlsx
+++ b/src/predicciones/holt_winters/producto_8.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1254 +404,1254 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44936</v>
       </c>
       <c r="B2">
-        <v>1.912350719095163</v>
+        <v>2.58554645721106</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44937</v>
       </c>
       <c r="B3">
-        <v>3.029243840544067</v>
+        <v>2.640696374571658</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44940</v>
       </c>
       <c r="B4">
-        <v>1.563150583638469</v>
+        <v>2.238943110525097</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44941</v>
       </c>
       <c r="B5">
-        <v>3.180580672737914</v>
+        <v>2.712295968157842</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44942</v>
       </c>
       <c r="B6">
-        <v>2.821908367836192</v>
+        <v>2.634537666772425</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44943</v>
       </c>
       <c r="B7">
-        <v>2.303123091315668</v>
+        <v>2.351585762490506</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44944</v>
       </c>
       <c r="B8">
-        <v>1.881836664942108</v>
+        <v>2.414093551242783</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44951</v>
       </c>
       <c r="B9">
-        <v>1.92356639428616</v>
+        <v>2.577761120106687</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44953</v>
       </c>
       <c r="B10">
-        <v>3.040459515735065</v>
+        <v>2.632911037467285</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44954</v>
       </c>
       <c r="B11">
-        <v>1.574366258829466</v>
+        <v>2.231157773420723</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44962</v>
       </c>
       <c r="B12">
-        <v>3.191796347928911</v>
+        <v>2.704510631053468</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44964</v>
       </c>
       <c r="B13">
-        <v>2.83312404302719</v>
+        <v>2.626752329668052</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44970</v>
       </c>
       <c r="B14">
-        <v>2.314338766506665</v>
+        <v>2.343800425386132</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44971</v>
       </c>
       <c r="B15">
-        <v>1.893052340133105</v>
+        <v>2.40630821413841</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44975</v>
       </c>
       <c r="B16">
-        <v>1.934782069477158</v>
+        <v>2.569975783002314</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44979</v>
       </c>
       <c r="B17">
-        <v>3.051675190926061</v>
+        <v>2.625125700362911</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44980</v>
       </c>
       <c r="B18">
-        <v>1.585581934020463</v>
+        <v>2.22337243631635</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44986</v>
       </c>
       <c r="B19">
-        <v>3.203012023119908</v>
+        <v>2.696725293949095</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44992</v>
       </c>
       <c r="B20">
-        <v>2.844339718218186</v>
+        <v>2.618966992563679</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44993</v>
       </c>
       <c r="B21">
-        <v>2.325554441697662</v>
+        <v>2.336015088281759</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44995</v>
       </c>
       <c r="B22">
-        <v>1.904268015324102</v>
+        <v>2.398522877034036</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44999</v>
       </c>
       <c r="B23">
-        <v>1.945997744668154</v>
+        <v>2.562190445897941</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45003</v>
       </c>
       <c r="B24">
-        <v>3.062890866117058</v>
+        <v>2.617340363258538</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45006</v>
       </c>
       <c r="B25">
-        <v>1.59679760921146</v>
+        <v>2.215587099211976</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45007</v>
       </c>
       <c r="B26">
-        <v>3.214227698310905</v>
+        <v>2.688939956844722</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45009</v>
       </c>
       <c r="B27">
-        <v>2.855555393409183</v>
+        <v>2.611181655459305</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45017</v>
       </c>
       <c r="B28">
-        <v>2.336770116888659</v>
+        <v>2.328229751177386</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45030</v>
       </c>
       <c r="B29">
-        <v>1.9154836905151</v>
+        <v>2.390737539929663</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45036</v>
       </c>
       <c r="B30">
-        <v>1.957213419859152</v>
+        <v>2.554405108793567</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45039</v>
       </c>
       <c r="B31">
-        <v>3.074106541308056</v>
+        <v>2.609555026154165</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45041</v>
       </c>
       <c r="B32">
-        <v>1.608013284402457</v>
+        <v>2.207801762107603</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45043</v>
       </c>
       <c r="B33">
-        <v>3.225443373501902</v>
+        <v>2.681154619740348</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45049</v>
       </c>
       <c r="B34">
-        <v>2.866771068600181</v>
+        <v>2.603396318354932</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45050</v>
       </c>
       <c r="B35">
-        <v>2.347985792079656</v>
+        <v>2.320444414073012</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45052</v>
       </c>
       <c r="B36">
-        <v>1.926699365706096</v>
+        <v>2.38295220282529</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45053</v>
       </c>
       <c r="B37">
-        <v>1.968429095050149</v>
+        <v>2.546619771689194</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45060</v>
       </c>
       <c r="B38">
-        <v>3.085322216499053</v>
+        <v>2.601769689049791</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45062</v>
       </c>
       <c r="B39">
-        <v>1.619228959593454</v>
+        <v>2.20001642500323</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45064</v>
       </c>
       <c r="B40">
-        <v>3.236659048692899</v>
+        <v>2.673369282635975</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45065</v>
       </c>
       <c r="B41">
-        <v>2.877986743791178</v>
+        <v>2.595610981250558</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45068</v>
       </c>
       <c r="B42">
-        <v>2.359201467270653</v>
+        <v>2.312659076968639</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45070</v>
       </c>
       <c r="B43">
-        <v>1.937915040897094</v>
+        <v>2.375166865720916</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45082</v>
       </c>
       <c r="B44">
-        <v>1.979644770241146</v>
+        <v>2.538834434584821</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45085</v>
       </c>
       <c r="B45">
-        <v>3.096537891690049</v>
+        <v>2.593984351945418</v>
       </c>
       <c r="C45">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45086</v>
       </c>
       <c r="B46">
-        <v>1.630444634784451</v>
+        <v>2.192231087898856</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45090</v>
       </c>
       <c r="B47">
-        <v>3.247874723883896</v>
+        <v>2.665583945531602</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45092</v>
       </c>
       <c r="B48">
-        <v>2.889202418982174</v>
+        <v>2.587825644146185</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45099</v>
       </c>
       <c r="B49">
-        <v>2.37041714246165</v>
+        <v>2.304873739864266</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45100</v>
       </c>
       <c r="B50">
-        <v>1.949130716088091</v>
+        <v>2.367381528616543</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45104</v>
       </c>
       <c r="B51">
-        <v>1.990860445432143</v>
+        <v>2.531049097480447</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45119</v>
       </c>
       <c r="B52">
-        <v>3.107753566881047</v>
+        <v>2.586199014841045</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45120</v>
       </c>
       <c r="B53">
-        <v>1.641660309975448</v>
+        <v>2.184445750794483</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45129</v>
       </c>
       <c r="B54">
-        <v>3.259090399074893</v>
+        <v>2.657798608427228</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45135</v>
       </c>
       <c r="B55">
-        <v>2.900418094173172</v>
+        <v>2.580040307041812</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45137</v>
       </c>
       <c r="B56">
-        <v>2.381632817652647</v>
+        <v>2.297088402759893</v>
       </c>
       <c r="C56">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45144</v>
       </c>
       <c r="B57">
-        <v>1.960346391279088</v>
+        <v>2.359596191512169</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45145</v>
       </c>
       <c r="B58">
-        <v>2.00207612062314</v>
+        <v>2.523263760376074</v>
       </c>
       <c r="C58">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45146</v>
       </c>
       <c r="B59">
-        <v>3.118969242072044</v>
+        <v>2.578413677736672</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45157</v>
       </c>
       <c r="B60">
-        <v>1.652875985166446</v>
+        <v>2.17666041369011</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45160</v>
       </c>
       <c r="B61">
-        <v>3.27030607426589</v>
+        <v>2.650013271322855</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45161</v>
       </c>
       <c r="B62">
-        <v>2.911633769364169</v>
+        <v>2.572254969937438</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45164</v>
       </c>
       <c r="B63">
-        <v>2.392848492843644</v>
+        <v>2.28930306565552</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45165</v>
       </c>
       <c r="B64">
-        <v>1.971562066470085</v>
+        <v>2.351810854407796</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45167</v>
       </c>
       <c r="B65">
-        <v>2.013291795814137</v>
+        <v>2.515478423271701</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45168</v>
       </c>
       <c r="B66">
-        <v>3.130184917263041</v>
+        <v>2.570628340632298</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45170</v>
       </c>
       <c r="B67">
-        <v>1.664091660357442</v>
+        <v>2.168875076585736</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45172</v>
       </c>
       <c r="B68">
-        <v>3.281521749456887</v>
+        <v>2.642227934218481</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45173</v>
       </c>
       <c r="B69">
-        <v>2.922849444555166</v>
+        <v>2.564469632833065</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45174</v>
       </c>
       <c r="B70">
-        <v>2.404064168034641</v>
+        <v>2.281517728551146</v>
       </c>
       <c r="C70">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45181</v>
       </c>
       <c r="B71">
-        <v>1.982777741661082</v>
+        <v>2.344025517303423</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45182</v>
       </c>
       <c r="B72">
-        <v>2.024507471005134</v>
+        <v>2.507693086167327</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45184</v>
       </c>
       <c r="B73">
-        <v>3.141400592454038</v>
+        <v>2.562843003527925</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45196</v>
       </c>
       <c r="B74">
-        <v>1.67530733554844</v>
+        <v>2.161089739481363</v>
       </c>
       <c r="C74">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45197</v>
       </c>
       <c r="B75">
-        <v>3.292737424647884</v>
+        <v>2.634442597114108</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45203</v>
       </c>
       <c r="B76">
-        <v>2.934065119746163</v>
+        <v>2.556684295728692</v>
       </c>
       <c r="C76">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45206</v>
       </c>
       <c r="B77">
-        <v>2.415279843225639</v>
+        <v>2.273732391446773</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45207</v>
       </c>
       <c r="B78">
-        <v>1.993993416852079</v>
+        <v>2.33624018019905</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45209</v>
       </c>
       <c r="B79">
-        <v>2.035723146196131</v>
+        <v>2.499907749062954</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45210</v>
       </c>
       <c r="B80">
-        <v>3.152616267645035</v>
+        <v>2.555057666423552</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45211</v>
       </c>
       <c r="B81">
-        <v>1.686523010739437</v>
+        <v>2.15330440237699</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45213</v>
       </c>
       <c r="B82">
-        <v>3.303953099838882</v>
+        <v>2.626657260009735</v>
       </c>
       <c r="C82">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45215</v>
       </c>
       <c r="B83">
-        <v>2.94528079493716</v>
+        <v>2.548898958624318</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45218</v>
       </c>
       <c r="B84">
-        <v>2.426495518416635</v>
+        <v>2.265947054342399</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45227</v>
       </c>
       <c r="B85">
-        <v>2.005209092043076</v>
+        <v>2.328454843094677</v>
       </c>
       <c r="C85">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45229</v>
       </c>
       <c r="B86">
-        <v>2.046938821387128</v>
+        <v>2.492122411958581</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45230</v>
       </c>
       <c r="B87">
-        <v>3.163831942836032</v>
+        <v>2.547272329319178</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45239</v>
       </c>
       <c r="B88">
-        <v>1.697738685930434</v>
+        <v>2.145519065272616</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45251</v>
       </c>
       <c r="B89">
-        <v>3.315168775029878</v>
+        <v>2.618871922905361</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45261</v>
       </c>
       <c r="B90">
-        <v>2.956496470128157</v>
+        <v>2.541113621519945</v>
       </c>
       <c r="C90">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45264</v>
       </c>
       <c r="B91">
-        <v>2.437711193607633</v>
+        <v>2.258161717238026</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45270</v>
       </c>
       <c r="B92">
-        <v>2.016424767234073</v>
+        <v>2.320669505990303</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45277</v>
       </c>
       <c r="B93">
-        <v>2.058154496578125</v>
+        <v>2.484337074854207</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45279</v>
       </c>
       <c r="B94">
-        <v>3.17504761802703</v>
+        <v>2.539486992214805</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45282</v>
       </c>
       <c r="B95">
-        <v>1.708954361121431</v>
+        <v>2.137733728168243</v>
       </c>
       <c r="C95">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45284</v>
       </c>
       <c r="B96">
-        <v>3.326384450220876</v>
+        <v>2.611086585800988</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45288</v>
       </c>
       <c r="B97">
-        <v>2.967712145319155</v>
+        <v>2.533328284415572</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45291</v>
       </c>
       <c r="B98">
-        <v>2.44892686879863</v>
+        <v>2.250376380133653</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45294</v>
       </c>
       <c r="B99">
-        <v>2.027640442425071</v>
+        <v>2.31288416888593</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45297</v>
       </c>
       <c r="B100">
-        <v>2.069370171769122</v>
+        <v>2.476551737749834</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45298</v>
       </c>
       <c r="B101">
-        <v>3.186263293218026</v>
+        <v>2.531701655110432</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45299</v>
       </c>
       <c r="B102">
-        <v>1.720170036312428</v>
+        <v>2.12994839106387</v>
       </c>
       <c r="C102">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45300</v>
       </c>
       <c r="B103">
-        <v>3.337600125411873</v>
+        <v>2.603301248696615</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45305</v>
       </c>
       <c r="B104">
-        <v>2.978927820510151</v>
+        <v>2.525542947311199</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45308</v>
       </c>
       <c r="B105">
-        <v>2.460142543989627</v>
+        <v>2.242591043029279</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45310</v>
       </c>
       <c r="B106">
-        <v>2.038856117616067</v>
+        <v>2.305098831781557</v>
       </c>
       <c r="C106">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45312</v>
       </c>
       <c r="B107">
-        <v>2.08058584696012</v>
+        <v>2.468766400645461</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45319</v>
       </c>
       <c r="B108">
-        <v>3.197478968409023</v>
+        <v>2.523916318006058</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45321</v>
       </c>
       <c r="B109">
-        <v>1.731385711503425</v>
+        <v>2.122163053959496</v>
       </c>
       <c r="C109">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45322</v>
       </c>
       <c r="B110">
-        <v>3.34881580060287</v>
+        <v>2.595515911592241</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45324</v>
       </c>
       <c r="B111">
-        <v>2.990143495701148</v>
+        <v>2.517757610206826</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45327</v>
       </c>
       <c r="B112">
-        <v>2.471358219180624</v>
+        <v>2.234805705924906</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45330</v>
       </c>
       <c r="B113">
-        <v>2.050071792807064</v>
+        <v>2.297313494677183</v>
       </c>
       <c r="C113">
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45332</v>
       </c>
       <c r="B114">
-        <v>2.091801522151116</v>
+        <v>2.460981063541087</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45338</v>
       </c>
       <c r="B115">
-        <v>3.208694643600021</v>
+        <v>2.516130980901685</v>
       </c>
       <c r="C115">
         <v>1</v>
